--- a/energy_data/xlsx_data/KDI_production_data.xlsx
+++ b/energy_data/xlsx_data/KDI_production_data.xlsx
@@ -199,18 +199,6 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -221,6 +209,18 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -239,14 +239,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:K7" totalsRowShown="0">
   <autoFilter ref="A2:K7"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="ID" dataDxfId="3"/>
-    <tableColumn id="2" name="Country" dataDxfId="2"/>
-    <tableColumn id="3" name="Commodity" dataDxfId="0"/>
-    <tableColumn id="4" name="price" dataDxfId="1"/>
-    <tableColumn id="5" name="units" dataDxfId="7"/>
-    <tableColumn id="6" name="quantity" dataDxfId="6"/>
-    <tableColumn id="7" name="units2" dataDxfId="5"/>
-    <tableColumn id="8" name="year" dataDxfId="4"/>
+    <tableColumn id="1" name="ID" dataDxfId="7"/>
+    <tableColumn id="2" name="Country" dataDxfId="6"/>
+    <tableColumn id="3" name="Commodity" dataDxfId="5"/>
+    <tableColumn id="4" name="price" dataDxfId="4"/>
+    <tableColumn id="5" name="units" dataDxfId="3"/>
+    <tableColumn id="6" name="quantity" dataDxfId="2"/>
+    <tableColumn id="7" name="units2" dataDxfId="1"/>
+    <tableColumn id="8" name="year" dataDxfId="0"/>
     <tableColumn id="9" name="Notes"/>
     <tableColumn id="10" name="FULL CITATION"/>
     <tableColumn id="11" name="AUTHOR"/>
@@ -545,7 +545,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,8 +723,8 @@
         <v>14</v>
       </c>
       <c r="F7" s="4">
-        <f>76570*1000*42*3.78</f>
-        <v>12156253200</v>
+        <f>76570*1000*42</f>
+        <v>3215940000</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>23</v>

--- a/energy_data/xlsx_data/KDI_production_data.xlsx
+++ b/energy_data/xlsx_data/KDI_production_data.xlsx
@@ -34,9 +34,6 @@
     <t>Diesel</t>
   </si>
   <si>
-    <t>Gasoline</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
@@ -92,6 +89,9 @@
   </si>
   <si>
     <t>units2</t>
+  </si>
+  <si>
+    <t>Fuel</t>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +564,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -579,31 +579,31 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="G2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J2" t="s">
         <v>1</v>
@@ -617,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>3</v>
@@ -626,10 +626,10 @@
       <c r="E3" s="11"/>
       <c r="F3" s="4"/>
       <c r="H3" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -637,26 +637,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="6">
         <v>82999</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="4">
         <f>1.6*10^12</f>
         <v>1600000000000</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -664,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>4</v>
@@ -673,17 +673,17 @@
         <v>90.48</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="4">
         <f>490399</f>
         <v>490399</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -691,7 +691,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>5</v>
@@ -700,10 +700,10 @@
       <c r="E6" s="11"/>
       <c r="F6" s="4"/>
       <c r="H6" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -711,26 +711,26 @@
         <v>1</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4">
         <v>1432.92</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="4">
         <f>76570*1000*42</f>
         <v>3215940000</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
